--- a/reportedAppreciations.xlsx
+++ b/reportedAppreciations.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>Core value</t>
   </si>
@@ -65,6 +65,9 @@
     <t>Moderator last name</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
     <t>corevalue 1 updated</t>
   </si>
   <si>
@@ -101,30 +104,60 @@
     <t>Satpute</t>
   </si>
   <si>
+    <t>Resolve appreciation test</t>
+  </si>
+  <si>
+    <t>Sharyu</t>
+  </si>
+  <si>
+    <t>Marwadi</t>
+  </si>
+  <si>
+    <t>resolved</t>
+  </si>
+  <si>
+    <t>Great teamwork aditya!</t>
+  </si>
+  <si>
+    <t>Amar</t>
+  </si>
+  <si>
+    <t>Jadhav</t>
+  </si>
+  <si>
+    <t>Aditya</t>
+  </si>
+  <si>
+    <t>Yadav</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t>reported</t>
+  </si>
+  <si>
+    <t>teamwork</t>
+  </si>
+  <si>
+    <t>Akshay</t>
+  </si>
+  <si>
+    <t>Khairnar</t>
+  </si>
+  <si>
+    <t>Patil</t>
+  </si>
+  <si>
+    <t>checking toast</t>
+  </si>
+  <si>
     <t>Abhay</t>
   </si>
   <si>
     <t>Inamdar</t>
   </si>
   <si>
-    <t>teamwork</t>
-  </si>
-  <si>
-    <t>Akshay</t>
-  </si>
-  <si>
-    <t>Khairnar</t>
-  </si>
-  <si>
-    <t>Patil</t>
-  </si>
-  <si>
-    <t>checking toast</t>
-  </si>
-  <si>
     <t>Anuj</t>
   </si>
   <si>
@@ -143,18 +176,9 @@
     <t>delete testing</t>
   </si>
   <si>
-    <t>Sharyu</t>
-  </si>
-  <si>
-    <t>Marwadi</t>
-  </si>
-  <si>
     <t>Amit</t>
   </si>
   <si>
-    <t>Jadhav</t>
-  </si>
-  <si>
     <t>Anu</t>
   </si>
   <si>
@@ -176,18 +200,21 @@
     <t>check</t>
   </si>
   <si>
+    <t>Ajinkya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karanjikar  </t>
+  </si>
+  <si>
+    <t>Technical Lead</t>
+  </si>
+  <si>
+    <t>Appreciation is appropriate</t>
+  </si>
+  <si>
     <t>inappropriate</t>
   </si>
   <si>
-    <t>Ajinkya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karanjikar  </t>
-  </si>
-  <si>
-    <t>Technical Lead</t>
-  </si>
-  <si>
     <t>Khadse</t>
   </si>
   <si>
@@ -210,6 +237,12 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>Delete test Aug 17</t>
+  </si>
+  <si>
+    <t>deleted</t>
   </si>
 </sst>
 </file>
@@ -578,555 +611,697 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M2">
         <v>1722535445028</v>
       </c>
       <c r="N2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M3">
-        <v>1722582108371</v>
+        <v>1723742295409</v>
       </c>
       <c r="N3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="P3" t="s">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4">
+        <v>1722582108371</v>
+      </c>
+      <c r="N4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" t="s">
         <v>39</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4">
-        <v>1722678293537</v>
-      </c>
-      <c r="N4" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5">
+        <v>1722678293537</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5">
-        <v>1722583911774</v>
-      </c>
-      <c r="N5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" t="s">
-        <v>30</v>
+      <c r="Q5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6">
+        <v>1722583911774</v>
+      </c>
+      <c r="N6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" t="s">
         <v>39</v>
-      </c>
-      <c r="H6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6">
-        <v>1722836108516</v>
-      </c>
-      <c r="N6" t="s">
-        <v>52</v>
-      </c>
-      <c r="O6" t="s">
-        <v>42</v>
-      </c>
-      <c r="P6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7">
+        <v>1722836108516</v>
+      </c>
+      <c r="N7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7">
-        <v>1722581314822</v>
-      </c>
-      <c r="N7" t="s">
-        <v>53</v>
-      </c>
-      <c r="O7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P7" t="s">
-        <v>30</v>
+      <c r="Q7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="K8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="L8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8">
+        <v>1723634143732</v>
+      </c>
+      <c r="N8" t="s">
+        <v>64</v>
+      </c>
+      <c r="O8" t="s">
         <v>30</v>
       </c>
-      <c r="M8">
-        <v>1721808849210</v>
-      </c>
-      <c r="N8" t="s">
-        <v>59</v>
-      </c>
-      <c r="O8" t="s">
-        <v>29</v>
-      </c>
       <c r="P8" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M9">
-        <v>1722581243630</v>
+        <v>1722581314822</v>
       </c>
       <c r="N9" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="O9" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="P9" t="s">
-        <v>30</v>
+        <v>46</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="H10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" t="s">
         <v>45</v>
       </c>
-      <c r="I10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" t="s">
-        <v>26</v>
-      </c>
       <c r="L10" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="M10">
-        <v>1722583904790</v>
+        <v>1721808849210</v>
       </c>
       <c r="N10" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="O10" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="P10" t="s">
-        <v>30</v>
+        <v>46</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" t="s">
         <v>26</v>
       </c>
-      <c r="E11" t="s">
+      <c r="K11" t="s">
         <v>27</v>
       </c>
-      <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" t="s">
-        <v>56</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>29</v>
-      </c>
       <c r="L11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M11">
-        <v>1721808838451</v>
+        <v>1722581243630</v>
       </c>
       <c r="N11" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="O11" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="P11" t="s">
-        <v>64</v>
+        <v>46</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12">
+        <v>1722583904790</v>
+      </c>
+      <c r="N12" t="s">
+        <v>70</v>
+      </c>
+      <c r="O12" t="s">
+        <v>45</v>
+      </c>
+      <c r="P12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13">
+        <v>1721808838451</v>
+      </c>
+      <c r="N13" t="s">
+        <v>71</v>
+      </c>
+      <c r="O13" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14">
+        <v>1722535525085</v>
+      </c>
+      <c r="N14" t="s">
+        <v>74</v>
+      </c>
+      <c r="O14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P14" t="s">
         <v>31</v>
       </c>
-      <c r="D12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12">
-        <v>1722535525085</v>
-      </c>
-      <c r="N12" t="s">
-        <v>28</v>
-      </c>
-      <c r="O12" t="s">
-        <v>29</v>
-      </c>
-      <c r="P12" t="s">
-        <v>30</v>
+      <c r="Q14" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/reportedAppreciations.xlsx
+++ b/reportedAppreciations.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Core value</t>
   </si>
@@ -131,118 +131,115 @@
     <t>Yadav</t>
   </si>
   <si>
+    <t>testing email</t>
+  </si>
+  <si>
+    <t>deleted</t>
+  </si>
+  <si>
+    <t>teamwork</t>
+  </si>
+  <si>
+    <t>Akshay</t>
+  </si>
+  <si>
+    <t>Khairnar</t>
+  </si>
+  <si>
+    <t>Patil</t>
+  </si>
+  <si>
+    <t>checking toast</t>
+  </si>
+  <si>
+    <t>Abhay</t>
+  </si>
+  <si>
+    <t>Inamdar</t>
+  </si>
+  <si>
+    <t>reported</t>
+  </si>
+  <si>
+    <t>Anuj</t>
+  </si>
+  <si>
+    <t>Verma</t>
+  </si>
+  <si>
+    <t>Product Manager</t>
+  </si>
+  <si>
+    <t>Ashok</t>
+  </si>
+  <si>
+    <t>Kori</t>
+  </si>
+  <si>
+    <t>delete testing</t>
+  </si>
+  <si>
+    <t>Amit</t>
+  </si>
+  <si>
+    <t>Anu</t>
+  </si>
+  <si>
+    <t>Gubbala</t>
+  </si>
+  <si>
+    <t>Senior QA Engineer</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>Anand</t>
+  </si>
+  <si>
+    <t>Chavhan</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>Ajinkya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karanjikar  </t>
+  </si>
+  <si>
+    <t>Technical Lead</t>
+  </si>
+  <si>
+    <t>Appreciation is appropriate</t>
+  </si>
+  <si>
+    <t>inappropriate</t>
+  </si>
+  <si>
+    <t>Khadse</t>
+  </si>
+  <si>
+    <t>False appreciation</t>
+  </si>
+  <si>
+    <t>Inappropriate appreciation</t>
+  </si>
+  <si>
+    <t>Doiphode</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>reported</t>
-  </si>
-  <si>
-    <t>teamwork</t>
-  </si>
-  <si>
-    <t>Akshay</t>
-  </si>
-  <si>
-    <t>Khairnar</t>
-  </si>
-  <si>
-    <t>Patil</t>
-  </si>
-  <si>
-    <t>checking toast</t>
-  </si>
-  <si>
-    <t>Abhay</t>
-  </si>
-  <si>
-    <t>Inamdar</t>
-  </si>
-  <si>
-    <t>Anuj</t>
-  </si>
-  <si>
-    <t>Verma</t>
-  </si>
-  <si>
-    <t>Product Manager</t>
-  </si>
-  <si>
-    <t>Ashok</t>
-  </si>
-  <si>
-    <t>Kori</t>
-  </si>
-  <si>
-    <t>delete testing</t>
-  </si>
-  <si>
-    <t>Amit</t>
-  </si>
-  <si>
-    <t>Anu</t>
-  </si>
-  <si>
-    <t>Gubbala</t>
-  </si>
-  <si>
-    <t>Senior QA Engineer</t>
-  </si>
-  <si>
-    <t>In</t>
-  </si>
-  <si>
-    <t>Anand</t>
-  </si>
-  <si>
-    <t>Chavhan</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>Ajinkya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karanjikar  </t>
-  </si>
-  <si>
-    <t>Technical Lead</t>
-  </si>
-  <si>
-    <t>Appreciation is appropriate</t>
-  </si>
-  <si>
-    <t>inappropriate</t>
-  </si>
-  <si>
-    <t>Khadse</t>
-  </si>
-  <si>
-    <t>False appreciation</t>
-  </si>
-  <si>
-    <t>Inappropriate appreciation</t>
-  </si>
-  <si>
-    <t>Doiphode</t>
-  </si>
-  <si>
     <t>Checking invalidation</t>
   </si>
   <si>
-    <t>Inappropriate</t>
-  </si>
-  <si>
-    <t>Arjun</t>
-  </si>
-  <si>
-    <t>B</t>
+    <t>testing email 2</t>
   </si>
   <si>
     <t>Delete test Aug 17</t>
-  </si>
-  <si>
-    <t>deleted</t>
   </si>
 </sst>
 </file>
@@ -712,10 +709,10 @@
         <v>38</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="P3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="Q3" t="s">
         <v>39</v>
@@ -771,7 +768,7 @@
         <v>46</v>
       </c>
       <c r="Q4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
@@ -785,19 +782,19 @@
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
@@ -815,7 +812,7 @@
         <v>1722678293537</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
         <v>30</v>
@@ -824,7 +821,7 @@
         <v>31</v>
       </c>
       <c r="Q5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
@@ -838,7 +835,7 @@
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
         <v>35</v>
@@ -847,13 +844,13 @@
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J6" t="s">
         <v>26</v>
@@ -868,7 +865,7 @@
         <v>1722583911774</v>
       </c>
       <c r="N6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O6" t="s">
         <v>45</v>
@@ -877,7 +874,7 @@
         <v>46</v>
       </c>
       <c r="Q6" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
@@ -891,19 +888,19 @@
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F7" t="s">
         <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
@@ -921,7 +918,7 @@
         <v>1722836108516</v>
       </c>
       <c r="N7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O7" t="s">
         <v>30</v>
@@ -930,7 +927,7 @@
         <v>31</v>
       </c>
       <c r="Q7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8">
@@ -953,13 +950,13 @@
         <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s">
         <v>26</v>
@@ -974,7 +971,7 @@
         <v>1723634143732</v>
       </c>
       <c r="N8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O8" t="s">
         <v>30</v>
@@ -1027,7 +1024,7 @@
         <v>1722581314822</v>
       </c>
       <c r="N9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O9" t="s">
         <v>45</v>
@@ -1036,7 +1033,7 @@
         <v>46</v>
       </c>
       <c r="Q9" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
@@ -1050,25 +1047,25 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" t="s">
         <v>62</v>
       </c>
-      <c r="F10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" t="s">
-        <v>61</v>
-      </c>
       <c r="H10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I10" t="s">
         <v>25</v>
       </c>
       <c r="J10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K10" t="s">
         <v>45</v>
@@ -1080,7 +1077,7 @@
         <v>1721808849210</v>
       </c>
       <c r="N10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O10" t="s">
         <v>45</v>
@@ -1089,7 +1086,7 @@
         <v>46</v>
       </c>
       <c r="Q10" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
@@ -1115,7 +1112,7 @@
         <v>41</v>
       </c>
       <c r="H11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I11" t="s">
         <v>22</v>
@@ -1133,7 +1130,7 @@
         <v>1722581243630</v>
       </c>
       <c r="N11" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="O11" t="s">
         <v>45</v>
@@ -1142,7 +1139,7 @@
         <v>46</v>
       </c>
       <c r="Q11" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
@@ -1165,7 +1162,7 @@
         <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H12" t="s">
         <v>35</v>
@@ -1186,7 +1183,7 @@
         <v>1722583904790</v>
       </c>
       <c r="N12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O12" t="s">
         <v>45</v>
@@ -1195,7 +1192,7 @@
         <v>46</v>
       </c>
       <c r="Q12" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
@@ -1218,16 +1215,16 @@
         <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K13" t="s">
         <v>45</v>
@@ -1239,13 +1236,13 @@
         <v>1721808838451</v>
       </c>
       <c r="N13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O13" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="P13" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="Q13" t="s">
         <v>39</v>
@@ -1262,7 +1259,7 @@
         <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
         <v>35</v>
@@ -1271,10 +1268,10 @@
         <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I14" t="s">
         <v>25</v>
@@ -1301,7 +1298,7 @@
         <v>31</v>
       </c>
       <c r="Q14" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/reportedAppreciations.xlsx
+++ b/reportedAppreciations.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Core value</t>
   </si>
@@ -74,49 +74,28 @@
     <t>new desc 1</t>
   </si>
   <si>
-    <t>Great teamwork!</t>
-  </si>
-  <si>
-    <t>Akansha</t>
-  </si>
-  <si>
-    <t>Kumari</t>
-  </si>
-  <si>
-    <t>Senior Software Engineer</t>
-  </si>
-  <si>
-    <t>Akash</t>
-  </si>
-  <si>
-    <t>Barde</t>
+    <t>Great teamwork aditya!</t>
+  </si>
+  <si>
+    <t>Samnit</t>
+  </si>
+  <si>
+    <t>Patil</t>
   </si>
   <si>
     <t>Software Engineer</t>
   </si>
   <si>
-    <t>Invalid appreciation</t>
-  </si>
-  <si>
-    <t>Chetan</t>
-  </si>
-  <si>
-    <t>Satpute</t>
-  </si>
-  <si>
-    <t>Resolve appreciation test</t>
-  </si>
-  <si>
     <t>Sharyu</t>
   </si>
   <si>
     <t>Marwadi</t>
   </si>
   <si>
-    <t>resolved</t>
-  </si>
-  <si>
-    <t>Great teamwork aditya!</t>
+    <t>Trainee</t>
+  </si>
+  <si>
+    <t>Invalid appreciation mail test</t>
   </si>
   <si>
     <t>Amar</t>
@@ -125,121 +104,25 @@
     <t>Jadhav</t>
   </si>
   <si>
-    <t>Aditya</t>
-  </si>
-  <si>
-    <t>Yadav</t>
-  </si>
-  <si>
-    <t>testing email</t>
+    <t>Delete test</t>
   </si>
   <si>
     <t>deleted</t>
   </si>
   <si>
-    <t>teamwork</t>
-  </si>
-  <si>
-    <t>Akshay</t>
-  </si>
-  <si>
-    <t>Khairnar</t>
-  </si>
-  <si>
-    <t>Patil</t>
-  </si>
-  <si>
-    <t>checking toast</t>
-  </si>
-  <si>
-    <t>Abhay</t>
-  </si>
-  <si>
-    <t>Inamdar</t>
+    <t>Delete test Amar Sir</t>
+  </si>
+  <si>
+    <t>delete test</t>
+  </si>
+  <si>
+    <t>test delete template</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>reported</t>
-  </si>
-  <si>
-    <t>Anuj</t>
-  </si>
-  <si>
-    <t>Verma</t>
-  </si>
-  <si>
-    <t>Product Manager</t>
-  </si>
-  <si>
-    <t>Ashok</t>
-  </si>
-  <si>
-    <t>Kori</t>
-  </si>
-  <si>
-    <t>delete testing</t>
-  </si>
-  <si>
-    <t>Amit</t>
-  </si>
-  <si>
-    <t>Anu</t>
-  </si>
-  <si>
-    <t>Gubbala</t>
-  </si>
-  <si>
-    <t>Senior QA Engineer</t>
-  </si>
-  <si>
-    <t>In</t>
-  </si>
-  <si>
-    <t>Anand</t>
-  </si>
-  <si>
-    <t>Chavhan</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>Ajinkya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karanjikar  </t>
-  </si>
-  <si>
-    <t>Technical Lead</t>
-  </si>
-  <si>
-    <t>Appreciation is appropriate</t>
-  </si>
-  <si>
-    <t>inappropriate</t>
-  </si>
-  <si>
-    <t>Khadse</t>
-  </si>
-  <si>
-    <t>False appreciation</t>
-  </si>
-  <si>
-    <t>Inappropriate appreciation</t>
-  </si>
-  <si>
-    <t>Doiphode</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Checking invalidation</t>
-  </si>
-  <si>
-    <t>testing email 2</t>
-  </si>
-  <si>
-    <t>Delete test Aug 17</t>
   </si>
 </sst>
 </file>
@@ -650,19 +533,19 @@
         <v>28</v>
       </c>
       <c r="M2">
-        <v>1722535445028</v>
+        <v>1724148974946</v>
       </c>
       <c r="N2" t="s">
         <v>29</v>
       </c>
       <c r="O2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="s">
         <v>30</v>
-      </c>
-      <c r="P2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -673,49 +556,49 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
         <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
       </c>
       <c r="J3" t="s">
         <v>26</v>
       </c>
       <c r="K3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="M3">
-        <v>1723742295409</v>
+        <v>1724142127343</v>
       </c>
       <c r="N3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="O3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" t="s">
         <v>30</v>
-      </c>
-      <c r="P3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4">
@@ -726,22 +609,22 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
         <v>25</v>
@@ -756,19 +639,19 @@
         <v>28</v>
       </c>
       <c r="M4">
-        <v>1722582108371</v>
+        <v>1724142419403</v>
       </c>
       <c r="N4" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="O4" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="P4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="Q4" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -779,25 +662,25 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J5" t="s">
         <v>26</v>
@@ -809,19 +692,19 @@
         <v>28</v>
       </c>
       <c r="M5">
-        <v>1722678293537</v>
+        <v>1724147894723</v>
       </c>
       <c r="N5" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="O5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" t="s">
         <v>30</v>
-      </c>
-      <c r="P5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6">
@@ -832,25 +715,25 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="J6" t="s">
         <v>26</v>
@@ -862,19 +745,19 @@
         <v>28</v>
       </c>
       <c r="M6">
-        <v>1722583911774</v>
+        <v>1724147726252</v>
       </c>
       <c r="N6" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="O6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="P6" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="Q6" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -885,25 +768,25 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
         <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" t="s">
-        <v>22</v>
       </c>
       <c r="J7" t="s">
         <v>26</v>
@@ -915,19 +798,19 @@
         <v>28</v>
       </c>
       <c r="M7">
-        <v>1722836108516</v>
+        <v>1724141967959</v>
       </c>
       <c r="N7" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="O7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" t="s">
         <v>30</v>
-      </c>
-      <c r="P7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8">
@@ -941,46 +824,46 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
         <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" t="s">
-        <v>64</v>
       </c>
       <c r="J8" t="s">
         <v>26</v>
       </c>
       <c r="K8" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="L8" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="M8">
-        <v>1723634143732</v>
+        <v>1724142801624</v>
       </c>
       <c r="N8" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="O8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" t="s">
         <v>30</v>
-      </c>
-      <c r="P8" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -991,22 +874,22 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="I9" t="s">
         <v>25</v>
@@ -1021,19 +904,19 @@
         <v>28</v>
       </c>
       <c r="M9">
-        <v>1722581314822</v>
+        <v>1724147347634</v>
       </c>
       <c r="N9" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="O9" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="P9" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="Q9" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -1047,46 +930,46 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="I10" t="s">
         <v>25</v>
       </c>
       <c r="J10" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="K10" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="L10" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M10">
-        <v>1721808849210</v>
+        <v>1724148823254</v>
       </c>
       <c r="N10" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="O10" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="P10" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="Q10" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
@@ -1097,25 +980,25 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" t="s">
         <v>25</v>
-      </c>
-      <c r="G11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" t="s">
-        <v>22</v>
       </c>
       <c r="J11" t="s">
         <v>26</v>
@@ -1127,178 +1010,19 @@
         <v>28</v>
       </c>
       <c r="M11">
-        <v>1722581243630</v>
+        <v>1724150347885</v>
       </c>
       <c r="N11" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="O11" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="P11" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="Q11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" t="s">
         <v>35</v>
-      </c>
-      <c r="I12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M12">
-        <v>1722583904790</v>
-      </c>
-      <c r="N12" t="s">
-        <v>72</v>
-      </c>
-      <c r="O12" t="s">
-        <v>45</v>
-      </c>
-      <c r="P12" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" t="s">
-        <v>63</v>
-      </c>
-      <c r="I13" t="s">
-        <v>64</v>
-      </c>
-      <c r="J13" t="s">
-        <v>68</v>
-      </c>
-      <c r="K13" t="s">
-        <v>45</v>
-      </c>
-      <c r="L13" t="s">
-        <v>46</v>
-      </c>
-      <c r="M13">
-        <v>1721808838451</v>
-      </c>
-      <c r="N13" t="s">
-        <v>73</v>
-      </c>
-      <c r="O13" t="s">
-        <v>30</v>
-      </c>
-      <c r="P13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" t="s">
-        <v>28</v>
-      </c>
-      <c r="M14">
-        <v>1722535525085</v>
-      </c>
-      <c r="N14" t="s">
-        <v>74</v>
-      </c>
-      <c r="O14" t="s">
-        <v>30</v>
-      </c>
-      <c r="P14" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/reportedAppreciations.xlsx
+++ b/reportedAppreciations.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Core value</t>
   </si>
@@ -113,13 +113,16 @@
     <t>Delete test Amar Sir</t>
   </si>
   <si>
+    <t>Great teamwork dskafkdfgkjahda a dhsfkjadhkfha hdkjfhakdhfkg sadhfkahdsjkfhakj aksjdhfkjahdkjfhakjsd akdshfkjahdfk</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>reported</t>
+  </si>
+  <si>
     <t>delete test</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>reported</t>
   </si>
   <si>
     <t>test delete template</t>
@@ -721,7 +724,7 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -751,19 +754,19 @@
         <v>28</v>
       </c>
       <c r="M6">
-        <v>1724147726252</v>
+        <v>1724220515710</v>
       </c>
       <c r="N6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="P6" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="Q6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -804,10 +807,10 @@
         <v>28</v>
       </c>
       <c r="M7">
-        <v>1724141967959</v>
+        <v>1724147726252</v>
       </c>
       <c r="N7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O7" t="s">
         <v>23</v>
@@ -857,10 +860,10 @@
         <v>28</v>
       </c>
       <c r="M8">
-        <v>1724142801624</v>
+        <v>1724141967959</v>
       </c>
       <c r="N8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="O8" t="s">
         <v>23</v>
@@ -910,19 +913,19 @@
         <v>28</v>
       </c>
       <c r="M9">
-        <v>1724164370847</v>
+        <v>1724142801624</v>
       </c>
       <c r="N9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O9" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="P9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="Q9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -963,19 +966,19 @@
         <v>28</v>
       </c>
       <c r="M10">
-        <v>1724147347634</v>
+        <v>1724164370847</v>
       </c>
       <c r="N10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="P10" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="Q10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -1016,10 +1019,10 @@
         <v>28</v>
       </c>
       <c r="M11">
-        <v>1724148823254</v>
+        <v>1724147347634</v>
       </c>
       <c r="N11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="O11" t="s">
         <v>23</v>
@@ -1069,7 +1072,7 @@
         <v>28</v>
       </c>
       <c r="M12">
-        <v>1724150347885</v>
+        <v>1724148823254</v>
       </c>
       <c r="N12" t="s">
         <v>36</v>
@@ -1081,7 +1084,60 @@
         <v>24</v>
       </c>
       <c r="Q12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13">
+        <v>1724150347885</v>
+      </c>
+      <c r="N13" t="s">
         <v>37</v>
+      </c>
+      <c r="O13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
